--- a/GillesPy2/ProvaEvento/output/output.xlsx
+++ b/GillesPy2/ProvaEvento/output/output.xlsx
@@ -462,222 +462,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2" t="n">
         <v>54</v>
       </c>
-      <c r="E2" t="n">
-        <v>55</v>
-      </c>
       <c r="F2" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
         <v>58</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F6" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>84</v>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F11" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" t="n">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F13" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -705,24 +705,24 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F14" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F15" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -745,59 +745,59 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" t="n">
+        <v>122</v>
+      </c>
+      <c r="F16" t="n">
         <v>112</v>
-      </c>
-      <c r="F16" t="n">
-        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
         <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>131</v>
       </c>
       <c r="E17" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F17" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E18" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F18" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -805,16 +805,16 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E19" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F19" t="n">
         <v>133</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E20" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F20" t="n">
         <v>137</v>
